--- a/Financial Analysis/EPAM.xlsx
+++ b/Financial Analysis/EPAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CEE922-BDBD-45F7-AA7C-6D75CCA06059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D358863-7769-4E19-B859-20A238F1B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8184807C-F564-425B-AEBD-E3B1D55FAE77}"/>
   </bookViews>
@@ -293,7 +293,7 @@
     <t>Net Margin</t>
   </si>
   <si>
-    <t>Slightly overvalued</t>
+    <t>Overvalued</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
       </c>
       <c r="F3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45764</v>
+        <v>45781</v>
       </c>
       <c r="G3" s="3">
         <v>45785</v>
@@ -919,10 +919,10 @@
   <dimension ref="B2:FQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK3" sqref="BK3"/>
+      <selection pane="bottomRight" activeCell="BN28" sqref="BN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5388,7 +5388,7 @@
         <v>46</v>
       </c>
       <c r="BN20" s="9">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="BN21" s="5">
         <f>NPV(BN20,AV13:FQ13)</f>
-        <v>5286.8510170323698</v>
+        <v>4723.4001547569496</v>
       </c>
     </row>
     <row r="22" spans="2:66" x14ac:dyDescent="0.3">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="BN23" s="5">
         <f>BN21+BN22</f>
-        <v>6549.65101703237</v>
+        <v>5986.2001547569498</v>
       </c>
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="BN24" s="4">
         <f>BN23/BF14</f>
-        <v>115.10810223255484</v>
+        <v>105.20562662138752</v>
       </c>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.3">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="BN26" s="10">
         <f>BN24/BN25-1</f>
-        <v>-0.23066366640452585</v>
+        <v>-0.29684783704459616</v>
       </c>
     </row>
     <row r="27" spans="2:66" x14ac:dyDescent="0.3">
